--- a/download/partdb.xlsx
+++ b/download/partdb.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\02 Study\02 semester\Field research\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20415" windowHeight="10830" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="12300" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="igem_team" sheetId="1" r:id="rId1"/>
@@ -315,7 +315,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -329,6 +329,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -613,8 +619,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A3"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -640,7 +646,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="3">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -657,7 +663,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="3">
+      <c r="A3" s="5">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -676,6 +682,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -684,7 +691,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="A2" sqref="A2:A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -722,7 +729,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -748,7 +755,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3">
+      <c r="A3" s="6">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -774,7 +781,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4">
+      <c r="A4" s="6">
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -800,7 +807,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5">
+      <c r="A5" s="6">
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -826,7 +833,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6">
+      <c r="A6" s="6">
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -852,7 +859,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7">
+      <c r="A7" s="6">
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -901,7 +908,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A2" sqref="A2:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -921,7 +928,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
       <c r="B2" t="s">
@@ -932,7 +939,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="A3" s="6">
         <v>2</v>
       </c>
       <c r="B3" t="s">
@@ -953,7 +960,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -994,7 +1001,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
       <c r="B2" t="s">
@@ -1029,7 +1036,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3">
+      <c r="A3" s="6">
         <v>2</v>
       </c>
       <c r="B3" t="s">
@@ -1064,7 +1071,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4">
+      <c r="A4" s="6">
         <v>3</v>
       </c>
       <c r="B4" t="s">
@@ -1099,7 +1106,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5">
+      <c r="A5" s="6">
         <v>4</v>
       </c>
       <c r="B5" t="s">
@@ -1134,7 +1141,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6">
+      <c r="A6" s="6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
@@ -1169,7 +1176,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7">
+      <c r="A7" s="6">
         <v>6</v>
       </c>
       <c r="B7" t="s">
@@ -1204,7 +1211,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8">
+      <c r="A8" s="6">
         <v>7</v>
       </c>
       <c r="B8" t="s">
@@ -1239,7 +1246,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9">
+      <c r="A9" s="6">
         <v>8</v>
       </c>
       <c r="B9" t="s">
@@ -1274,7 +1281,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10">
+      <c r="A10" s="6">
         <v>9</v>
       </c>
       <c r="B10" t="s">
@@ -1309,7 +1316,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11">
+      <c r="A11" s="6">
         <v>10</v>
       </c>
       <c r="B11" t="s">

--- a/download/partdb.xlsx
+++ b/download/partdb.xlsx
@@ -619,9 +619,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
-    </sheetView>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -629,7 +627,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -690,9 +688,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A7"/>
-    </sheetView>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -703,7 +699,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -907,9 +903,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -917,7 +911,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -960,13 +954,13 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -1353,5 +1347,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/download/partdb.xlsx
+++ b/download/partdb.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="66">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -231,6 +231,36 @@
   <si>
     <t>BBid</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
   </si>
 </sst>
 </file>
@@ -331,12 +361,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -619,7 +647,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -627,7 +657,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -644,8 +674,8 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="5">
-        <v>1</v>
+      <c r="A2" s="6" t="s">
+        <v>56</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>18</v>
@@ -661,8 +691,8 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="5">
-        <v>2</v>
+      <c r="A3" s="6" t="s">
+        <v>57</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>19</v>
@@ -688,7 +718,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -699,7 +731,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -725,8 +757,8 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="6">
-        <v>1</v>
+      <c r="A2" s="6" t="s">
+        <v>56</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>24</v>
@@ -751,8 +783,8 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="6">
-        <v>2</v>
+      <c r="A3" s="6" t="s">
+        <v>57</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>13</v>
@@ -777,8 +809,8 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="6">
-        <v>3</v>
+      <c r="A4" s="6" t="s">
+        <v>58</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>25</v>
@@ -803,8 +835,8 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="6">
-        <v>4</v>
+      <c r="A5" s="6" t="s">
+        <v>59</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>26</v>
@@ -829,8 +861,8 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="6">
-        <v>5</v>
+      <c r="A6" s="6" t="s">
+        <v>60</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>24</v>
@@ -855,8 +887,8 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="6">
-        <v>6</v>
+      <c r="A7" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>27</v>
@@ -903,7 +935,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -911,7 +945,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -922,8 +956,8 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="6">
-        <v>1</v>
+      <c r="A2" s="6" t="s">
+        <v>56</v>
       </c>
       <c r="B2" t="s">
         <v>12</v>
@@ -933,8 +967,8 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="6">
-        <v>2</v>
+      <c r="A3" s="6" t="s">
+        <v>57</v>
       </c>
       <c r="B3" t="s">
         <v>17</v>
@@ -953,14 +987,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -995,8 +1029,8 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="6">
-        <v>1</v>
+      <c r="A2" s="6" t="s">
+        <v>56</v>
       </c>
       <c r="B2" t="s">
         <v>42</v>
@@ -1030,8 +1064,8 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="6">
-        <v>2</v>
+      <c r="A3" s="6" t="s">
+        <v>57</v>
       </c>
       <c r="B3" t="s">
         <v>42</v>
@@ -1065,8 +1099,8 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="6">
-        <v>3</v>
+      <c r="A4" s="6" t="s">
+        <v>58</v>
       </c>
       <c r="B4" t="s">
         <v>42</v>
@@ -1100,8 +1134,8 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="6">
-        <v>4</v>
+      <c r="A5" s="6" t="s">
+        <v>59</v>
       </c>
       <c r="B5" t="s">
         <v>42</v>
@@ -1135,8 +1169,8 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="6">
-        <v>5</v>
+      <c r="A6" s="6" t="s">
+        <v>60</v>
       </c>
       <c r="B6" t="s">
         <v>42</v>
@@ -1170,8 +1204,8 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="6">
-        <v>6</v>
+      <c r="A7" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="B7" t="s">
         <v>42</v>
@@ -1205,8 +1239,8 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="6">
-        <v>7</v>
+      <c r="A8" s="6" t="s">
+        <v>62</v>
       </c>
       <c r="B8" t="s">
         <v>42</v>
@@ -1240,8 +1274,8 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="6">
-        <v>8</v>
+      <c r="A9" s="6" t="s">
+        <v>63</v>
       </c>
       <c r="B9" t="s">
         <v>42</v>
@@ -1275,8 +1309,8 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="6">
-        <v>9</v>
+      <c r="A10" s="6" t="s">
+        <v>64</v>
       </c>
       <c r="B10" t="s">
         <v>42</v>
@@ -1310,8 +1344,8 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="6">
-        <v>10</v>
+      <c r="A11" s="6" t="s">
+        <v>65</v>
       </c>
       <c r="B11" t="s">
         <v>42</v>
